--- a/nmadb/480695.xlsx
+++ b/nmadb/480695.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11565"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$F$291</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,7 +597,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -632,7 +631,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -4337,7 +4335,7 @@
         <v>102</v>
       </c>
       <c r="D204" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E204" s="2">
         <v>19</v>
@@ -4371,7 +4369,7 @@
         <v>103</v>
       </c>
       <c r="D206" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E206" s="2">
         <v>24</v>
@@ -4405,7 +4403,7 @@
         <v>104</v>
       </c>
       <c r="D208" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E208" s="2">
         <v>20</v>
